--- a/artfynd/A 11767-2021.xlsx
+++ b/artfynd/A 11767-2021.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>109672394</v>
+        <v>109672391</v>
       </c>
       <c r="B2" t="n">
         <v>56395</v>
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>407928.917497518</v>
+        <v>407439.228131063</v>
       </c>
       <c r="R2" t="n">
-        <v>7014334.335588082</v>
+        <v>7014589.088308994</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -774,7 +774,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>ringhack gamla</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -801,7 +801,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>109672392</v>
+        <v>109672394</v>
       </c>
       <c r="B3" t="n">
         <v>56395</v>
@@ -845,10 +845,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>407663.9694178636</v>
+        <v>407928.917497518</v>
       </c>
       <c r="R3" t="n">
-        <v>7014508.711146449</v>
+        <v>7014334.335588082</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -922,7 +922,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>109672391</v>
+        <v>109672392</v>
       </c>
       <c r="B4" t="n">
         <v>56395</v>
@@ -966,10 +966,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>407439.228131063</v>
+        <v>407663.9694178636</v>
       </c>
       <c r="R4" t="n">
-        <v>7014589.088308994</v>
+        <v>7014508.711146449</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1016,7 +1016,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack gamla</t>
         </is>
       </c>
       <c r="AD4" t="b">

--- a/artfynd/A 11767-2021.xlsx
+++ b/artfynd/A 11767-2021.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>109672391</v>
+        <v>109672394</v>
       </c>
       <c r="B2" t="n">
         <v>56395</v>
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>407439.228131063</v>
+        <v>407928.917497518</v>
       </c>
       <c r="R2" t="n">
-        <v>7014589.088308994</v>
+        <v>7014334.335588082</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -774,7 +774,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack gamla</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -801,7 +801,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>109672394</v>
+        <v>109672392</v>
       </c>
       <c r="B3" t="n">
         <v>56395</v>
@@ -845,10 +845,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>407928.917497518</v>
+        <v>407663.9694178636</v>
       </c>
       <c r="R3" t="n">
-        <v>7014334.335588082</v>
+        <v>7014508.711146449</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -922,7 +922,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>109672392</v>
+        <v>109672391</v>
       </c>
       <c r="B4" t="n">
         <v>56395</v>
@@ -966,10 +966,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>407663.9694178636</v>
+        <v>407439.228131063</v>
       </c>
       <c r="R4" t="n">
-        <v>7014508.711146449</v>
+        <v>7014589.088308994</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1016,7 +1016,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>ringhack gamla</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD4" t="b">
